--- a/biology/Botanique/Liste_des_plantes_du_Canada_B/Liste_des_plantes_du_Canada_B.xlsx
+++ b/biology/Botanique/Liste_des_plantes_du_Canada_B/Liste_des_plantes_du_Canada_B.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F9"/>
+  <dimension ref="A1:H9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve"> Voici la liste des plantes du Canada. Les plantes indigènes au Canada sont indicées avec un  N, et les plantes introduites, le sont avec un  X.
 A | B | C | D | E | F | G | H | I | J | K | L | M | N | O | P | Q | R | S | T | U | V | W | XYZ
@@ -512,7 +524,9 @@
           <t>Ba</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t>Ballota
 X Ballota nigra
@@ -558,7 +572,9 @@
           <t>Be</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t>Beckmannia
 N Beckmannia syzigachne — beckmannie à écailles unies
@@ -618,7 +634,9 @@
           <t>Bi</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t>Bidens
 X Bidens aristosa
@@ -660,7 +678,9 @@
           <t>Bl</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
         <is>
           <t>Blephilia
 N Blephilia ciliata
@@ -694,7 +714,9 @@
           <t>Bo</t>
         </is>
       </c>
-      <c r="F7" t="inlineStr">
+      <c r="F7" t="inlineStr"/>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
         <is>
           <t>Boehmeria
 N Boehmeria cylindrica — bœhméria cylindrique
@@ -750,7 +772,9 @@
           <t>Br</t>
         </is>
       </c>
-      <c r="F8" t="inlineStr">
+      <c r="F8" t="inlineStr"/>
+      <c r="G8" t="inlineStr"/>
+      <c r="H8" t="inlineStr">
         <is>
           <t>Brachyelytrum
 N Brachyelytrum erectum variété erectum — brachyélytrum dressé
@@ -816,7 +840,9 @@
           <t>Bu</t>
         </is>
       </c>
-      <c r="F9" t="inlineStr">
+      <c r="F9" t="inlineStr"/>
+      <c r="G9" t="inlineStr"/>
+      <c r="H9" t="inlineStr">
         <is>
           <t>Buchnera
 N Buchnera americana —  Menacé 
